--- a/public/template/TemplateNISNSiswa.xlsx
+++ b/public/template/TemplateNISNSiswa.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Coding\Laravel Project\LangkahEducation\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LangkahEdu\03. Web\LangkahEducation\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{761D6FD7-9C19-4965-959E-8E4EB7BAC8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B9821A3-DBC6-4D78-9829-83A89DFEFF3D}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,13 +32,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>NSIN</t>
+    <t>NISN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,16 +384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B6F39D-9DF8-40C3-8464-32D41E1E6404}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
